--- a/without_memcopy_gpu.xlsx
+++ b/without_memcopy_gpu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GOOGLE_DRIVE\SCHOOL 2019-2020\Geavanceerde computerarchitectuur\Labo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11FB6126-BED2-4497-9B12-324B2CA88E28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{67049C08-1521-45FE-BC80-A65D27DF334D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
@@ -635,10 +635,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$A$1:$A$1023</c:f>
+              <c:f>data!$A$1:$A$1022</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1023"/>
+                <c:ptCount val="1022"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3704,30 +3704,27 @@
                 </c:pt>
                 <c:pt idx="1021">
                   <c:v>1022</c:v>
-                </c:pt>
-                <c:pt idx="1022">
-                  <c:v>1023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$B$1:$B$1023</c:f>
+              <c:f>data!$B$1:$B$1022</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1023"/>
+                <c:ptCount val="1022"/>
                 <c:pt idx="0">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2E-3</c:v>
@@ -3739,19 +3736,19 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2E-3</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2E-3</c:v>
@@ -3766,10 +3763,10 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2E-3</c:v>
@@ -3778,25 +3775,25 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2E-3</c:v>
@@ -3814,7 +3811,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2E-3</c:v>
@@ -3823,56 +3820,56 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="52">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -3880,7 +3877,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>2E-3</c:v>
@@ -3907,53 +3904,53 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="79">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -3961,26 +3958,26 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="82">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="88">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -4006,37 +4003,37 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="102">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="106">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>2E-3</c:v>
@@ -4072,13 +4069,13 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="119">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="120">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>2E-3</c:v>
@@ -4087,43 +4084,43 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="124">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="134">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="130">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="135">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>2E-3</c:v>
@@ -4147,25 +4144,25 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="143">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="144">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="148">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>2E-3</c:v>
@@ -4189,10 +4186,10 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>2E-3</c:v>
@@ -4228,7 +4225,7 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>2E-3</c:v>
@@ -4261,76 +4258,76 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="182">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="183">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="193">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="201">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="194">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="202">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="205">
                   <c:v>2E-3</c:v>
@@ -4339,22 +4336,22 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="207">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="211">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="208">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="212">
                   <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>2E-3</c:v>
@@ -4408,22 +4405,22 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="230">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="233">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="231">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="234">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>2E-3</c:v>
@@ -4459,7 +4456,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>1E-3</c:v>
@@ -4483,98 +4480,98 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="255">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="275">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="256">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="265">
+                <c:pt idx="276">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="266">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="270">
+                <c:pt idx="277">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="284">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="271">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="282">
+                <c:pt idx="285">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="283">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="286">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -4582,7 +4579,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2E-3</c:v>
@@ -4594,31 +4591,31 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="292">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="297">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="293">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="298">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>2E-3</c:v>
@@ -4633,40 +4630,40 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="305">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="311">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="306">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="308">
+                <c:pt idx="312">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="314">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="309">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="315">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>2E-3</c:v>
@@ -4717,7 +4714,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>2E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="334">
                   <c:v>2E-3</c:v>
@@ -4738,20 +4735,20 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="340">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="343">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="341">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="342">
+                <c:pt idx="344">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="343">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="345">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -4759,31 +4756,31 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="347">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="353">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="348">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="352">
+                <c:pt idx="354">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="353">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="355">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="356">
                   <c:v>2E-3</c:v>
@@ -4804,22 +4801,22 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="362">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="366">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="363">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="367">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="368">
                   <c:v>2E-3</c:v>
@@ -4855,13 +4852,13 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="379">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="380">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="380">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="381">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="382">
                   <c:v>2E-3</c:v>
@@ -4891,13 +4888,13 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>2E-3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>2E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="394">
                   <c:v>2E-3</c:v>
@@ -4912,389 +4909,389 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="398">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="408">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="399">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="403">
+                <c:pt idx="409">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="423">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="404">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="410">
+                <c:pt idx="424">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="431">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="411">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="419">
+                <c:pt idx="432">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="446">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="420">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="424">
+                <c:pt idx="447">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="448">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="425">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="433">
+                <c:pt idx="449">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="457">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="434">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="436">
+                <c:pt idx="458">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="464">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="437">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="442">
+                <c:pt idx="465">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="473">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="443">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="468">
+                <c:pt idx="474">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="487">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="469">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="470">
+                <c:pt idx="488">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="489">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="471">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="475">
+                <c:pt idx="490">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="495">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="476">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="479">
+                <c:pt idx="496">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="503">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="480">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="500">
+                <c:pt idx="504">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="510">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="501">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="507">
+                <c:pt idx="511">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="524">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="508">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="514">
+                <c:pt idx="525">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="515">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="526">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -5302,7 +5299,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="528">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="529">
                   <c:v>2E-3</c:v>
@@ -5311,7 +5308,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="531">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="532">
                   <c:v>2E-3</c:v>
@@ -5323,16 +5320,16 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="535">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="536">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="536">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="537">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="538">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="539">
                   <c:v>2E-3</c:v>
@@ -5341,7 +5338,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="541">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="542">
                   <c:v>2E-3</c:v>
@@ -5350,7 +5347,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="544">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="545">
                   <c:v>2E-3</c:v>
@@ -5359,44 +5356,44 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="547">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="559">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="548">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="560">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -5416,19 +5413,19 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="566">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="568">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="567">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="569">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="570">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="571">
                   <c:v>2E-3</c:v>
@@ -5461,10 +5458,10 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="581">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="582">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="583">
                   <c:v>2E-3</c:v>
@@ -5473,13 +5470,13 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="585">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="586">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="587">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="588">
                   <c:v>2E-3</c:v>
@@ -5488,22 +5485,22 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="590">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="591">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="595">
                   <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="596">
                   <c:v>2E-3</c:v>
@@ -5533,7 +5530,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="605">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="606">
                   <c:v>2E-3</c:v>
@@ -5542,13 +5539,13 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="608">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="609">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="610">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="611">
                   <c:v>2E-3</c:v>
@@ -5557,16 +5554,16 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="613">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="614">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="615">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="615">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="616">
-                  <c:v>1E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="617">
                   <c:v>2E-3</c:v>
@@ -5617,7 +5614,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="633">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="634">
                   <c:v>2E-3</c:v>
@@ -5626,7 +5623,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="636">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="637">
                   <c:v>2E-3</c:v>
@@ -5635,7 +5632,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="639">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="640">
                   <c:v>2E-3</c:v>
@@ -5644,7 +5641,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="642">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="643">
                   <c:v>2E-3</c:v>
@@ -5656,41 +5653,41 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="646">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="655">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="647">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="648">
+                <c:pt idx="656">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="657">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="649">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="655">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="656">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="657">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="658">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -5710,13 +5707,13 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="664">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="665">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="666">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="667">
                   <c:v>2E-3</c:v>
@@ -5737,52 +5734,52 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="673">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="674">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="675">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="676">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="677">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="686">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="678">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="679">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="680">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="681">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="682">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="683">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="684">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="685">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="686">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="687">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="688">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="689">
                   <c:v>2E-3</c:v>
@@ -5791,7 +5788,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="691">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="692">
                   <c:v>2E-3</c:v>
@@ -5818,37 +5815,37 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="700">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="701">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="702">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="703">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="704">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="705">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="706">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="706">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="707">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="708">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="708">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="709">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="710">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="711">
                   <c:v>2E-3</c:v>
@@ -5860,25 +5857,25 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="714">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="716">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="715">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="716">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="717">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="718">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="719">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="720">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="721">
                   <c:v>2E-3</c:v>
@@ -5890,10 +5887,10 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="724">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="725">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="726">
                   <c:v>2E-3</c:v>
@@ -5905,10 +5902,10 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="729">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="730">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="731">
                   <c:v>2E-3</c:v>
@@ -5920,7 +5917,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="734">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="735">
                   <c:v>2E-3</c:v>
@@ -5932,20 +5929,20 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="738">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="739">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="740">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="742">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="741">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="742">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="743">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -5953,10 +5950,10 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="745">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="746">
                   <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="746">
-                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="747">
                   <c:v>2E-3</c:v>
@@ -5983,11 +5980,11 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="755">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="756">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="756">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="757">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -5998,7 +5995,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="760">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="761">
                   <c:v>2E-3</c:v>
@@ -6013,10 +6010,10 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="765">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="766">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="767">
                   <c:v>2E-3</c:v>
@@ -6028,7 +6025,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="770">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="771">
                   <c:v>2E-3</c:v>
@@ -6052,14 +6049,14 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="778">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="779">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="780">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="780">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
                 <c:pt idx="781">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -6082,7 +6079,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="788">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="789">
                   <c:v>2E-3</c:v>
@@ -6100,7 +6097,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="794">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="795">
                   <c:v>2E-3</c:v>
@@ -6112,7 +6109,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="798">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="799">
                   <c:v>2E-3</c:v>
@@ -6130,145 +6127,145 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="804">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="812">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="805">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="806">
+                <c:pt idx="813">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="844">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="807">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="808">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="809">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="810">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="811">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="812">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="813">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="814">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="815">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="816">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="817">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="818">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="819">
+                <c:pt idx="845">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="846">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="820">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="821">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="822">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="823">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="824">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="825">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="826">
+                <c:pt idx="847">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="848">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="827">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="828">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="829">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="830">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="831">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="832">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="833">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="834">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="835">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="836">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="837">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="838">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="839">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="840">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="841">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="842">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="843">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="844">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="845">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="846">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="847">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="848">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="849">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="850">
-                  <c:v>1E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="851">
                   <c:v>2E-3</c:v>
@@ -6283,13 +6280,13 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="855">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="856">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="857">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="858">
                   <c:v>2E-3</c:v>
@@ -6301,13 +6298,13 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="861">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="862">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="863">
-                  <c:v>1E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="864">
                   <c:v>2E-3</c:v>
@@ -6325,13 +6322,13 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="869">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="870">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="871">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="872">
                   <c:v>2E-3</c:v>
@@ -6358,13 +6355,13 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="880">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="881">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="882">
-                  <c:v>1E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="883">
                   <c:v>2E-3</c:v>
@@ -6376,7 +6373,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="886">
-                  <c:v>1E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="887">
                   <c:v>2E-3</c:v>
@@ -6388,19 +6385,19 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="890">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="891">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="892">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="893">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="894">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="895">
                   <c:v>2E-3</c:v>
@@ -6412,19 +6409,19 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="898">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="899">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="900">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="901">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="902">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="903">
                   <c:v>2E-3</c:v>
@@ -6442,7 +6439,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="908">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="909">
                   <c:v>2E-3</c:v>
@@ -6451,130 +6448,130 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="911">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="912">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="912">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="913">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="914">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="915">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="916">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="917">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="918">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="947">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="919">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="920">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="921">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="922">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="923">
+                <c:pt idx="948">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="952">
                   <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="924">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="925">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="926">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="927">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="928">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="929">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="930">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="931">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="932">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="933">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="934">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="935">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="936">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="937">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="938">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="939">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="940">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="941">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="942">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="943">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="944">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="945">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="946">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="947">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="948">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="949">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="950">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="951">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="952">
-                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="953">
                   <c:v>2E-3</c:v>
@@ -6583,7 +6580,7 @@
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="955">
-                  <c:v>2E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="956">
                   <c:v>2E-3</c:v>
@@ -6592,158 +6589,158 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="958">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="979">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="959">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="960">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="961">
+                <c:pt idx="980">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1008">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="962">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="963">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="964">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="965">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="966">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="967">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="968">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="969">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="970">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="971">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="972">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="973">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="974">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="975">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="976">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="977">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="978">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="979">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="980">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="981">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="982">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="983">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="984">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="985">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="986">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="987">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="988">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="989">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="990">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="991">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="992">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="993">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="994">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="995">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="996">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="997">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="998">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="999">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="1000">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="1001">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="1002">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="1003">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="1004">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="1005">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1006">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="1007">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1008">
-                  <c:v>2E-3</c:v>
-                </c:pt>
                 <c:pt idx="1009">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -6781,9 +6778,6 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1021">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="1022">
                   <c:v>2E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -6792,7 +6786,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF2A-4670-AB1D-7839AD00A989}"/>
+              <c16:uniqueId val="{00000000-1289-4C19-990B-BB36296CED7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6804,11 +6798,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463370048"/>
-        <c:axId val="463361520"/>
+        <c:axId val="456325624"/>
+        <c:axId val="456327920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463370048"/>
+        <c:axId val="456325624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6865,12 +6859,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463361520"/>
+        <c:crossAx val="456327920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463361520"/>
+        <c:axId val="456327920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6927,7 +6921,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463370048"/>
+        <c:crossAx val="456325624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7543,23 +7537,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Grafiek 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D00624-3C45-492E-86A4-BCB022B973D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD18896-67F9-4C1F-867C-612859FD264F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7880,7 +7874,7 @@
   <dimension ref="A1:B1023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+      <selection activeCell="Z9" sqref="Z9:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7898,7 +7892,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7914,7 +7908,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7946,7 +7940,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7962,7 +7956,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7978,7 +7972,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8018,7 +8012,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8026,7 +8020,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8050,7 +8044,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8058,7 +8052,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8082,7 +8076,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8090,7 +8084,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8098,7 +8092,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8146,7 +8140,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8170,7 +8164,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8266,7 +8260,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8298,7 +8292,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8322,7 +8316,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -8394,7 +8388,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -8434,7 +8428,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -8442,7 +8436,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -8514,7 +8508,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -8538,7 +8532,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -8586,7 +8580,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -8658,7 +8652,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -8666,7 +8660,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -8674,7 +8668,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -8682,7 +8676,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -8698,7 +8692,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -8730,7 +8724,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -8738,7 +8732,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -8834,7 +8828,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -8842,7 +8836,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -8850,7 +8844,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -8874,7 +8868,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -8922,7 +8916,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -8954,7 +8948,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -8962,7 +8956,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -8970,7 +8964,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -9034,7 +9028,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -9066,7 +9060,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -9082,7 +9076,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -9146,7 +9140,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -9154,7 +9148,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -9250,7 +9244,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -9338,7 +9332,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -9346,7 +9340,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -9426,7 +9420,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -9434,7 +9428,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -9498,7 +9492,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -9506,7 +9500,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -9514,7 +9508,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -9522,7 +9516,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -9546,7 +9540,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -9562,7 +9556,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -9578,7 +9572,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -9586,7 +9580,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -9730,7 +9724,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -9754,7 +9748,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -9762,7 +9756,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -9770,7 +9764,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -9866,7 +9860,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -9930,7 +9924,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -10010,7 +10004,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -10050,7 +10044,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -10090,7 +10084,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -10098,7 +10092,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -10146,7 +10140,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -10162,7 +10156,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -10170,7 +10164,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -10194,7 +10188,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -10226,7 +10220,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -10266,7 +10260,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -10274,7 +10268,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -10282,7 +10276,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -10290,7 +10284,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -10330,7 +10324,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -10354,7 +10348,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -10378,7 +10372,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -10394,7 +10388,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -10402,7 +10396,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -10418,7 +10412,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -10554,7 +10548,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -10610,7 +10604,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -10626,7 +10620,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -10634,7 +10628,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -10642,7 +10636,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -10666,7 +10660,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -10706,7 +10700,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -10714,7 +10708,7 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -10722,7 +10716,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -10730,7 +10724,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -10786,7 +10780,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -10818,7 +10812,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -10826,7 +10820,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -10922,7 +10916,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -10930,7 +10924,7 @@
         <v>381</v>
       </c>
       <c r="B381">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -10938,7 +10932,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -11018,7 +11012,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>2E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -11026,7 +11020,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -11034,7 +11028,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -11074,7 +11068,7 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -11114,7 +11108,7 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -11154,7 +11148,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -11170,7 +11164,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -11242,7 +11236,7 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -11274,7 +11268,7 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -11282,7 +11276,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -11338,7 +11332,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -11354,7 +11348,7 @@
         <v>434</v>
       </c>
       <c r="B434">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -11378,7 +11372,7 @@
         <v>437</v>
       </c>
       <c r="B437">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -11426,7 +11420,7 @@
         <v>443</v>
       </c>
       <c r="B443">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -11458,7 +11452,7 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -11474,7 +11468,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -11546,7 +11540,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -11602,7 +11596,7 @@
         <v>465</v>
       </c>
       <c r="B465">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -11634,7 +11628,7 @@
         <v>469</v>
       </c>
       <c r="B469">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -11650,7 +11644,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -11674,7 +11668,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -11690,7 +11684,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -11722,7 +11716,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -11786,7 +11780,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -11802,7 +11796,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -11850,7 +11844,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -11890,7 +11884,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -11906,7 +11900,7 @@
         <v>503</v>
       </c>
       <c r="B503">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -11914,7 +11908,7 @@
         <v>504</v>
       </c>
       <c r="B504">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -11946,7 +11940,7 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -11970,7 +11964,7 @@
         <v>511</v>
       </c>
       <c r="B511">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -11978,7 +11972,7 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -12002,7 +11996,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -12058,7 +12052,7 @@
         <v>522</v>
       </c>
       <c r="B522">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -12082,7 +12076,7 @@
         <v>525</v>
       </c>
       <c r="B525">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -12090,7 +12084,7 @@
         <v>526</v>
       </c>
       <c r="B526">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -12114,7 +12108,7 @@
         <v>529</v>
       </c>
       <c r="B529">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -12138,7 +12132,7 @@
         <v>532</v>
       </c>
       <c r="B532">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -12170,7 +12164,7 @@
         <v>536</v>
       </c>
       <c r="B536">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -12178,7 +12172,7 @@
         <v>537</v>
       </c>
       <c r="B537">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -12194,7 +12188,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -12218,7 +12212,7 @@
         <v>542</v>
       </c>
       <c r="B542">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -12242,7 +12236,7 @@
         <v>545</v>
       </c>
       <c r="B545">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -12266,7 +12260,7 @@
         <v>548</v>
       </c>
       <c r="B548">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -12362,7 +12356,7 @@
         <v>560</v>
       </c>
       <c r="B560">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -12418,7 +12412,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -12434,7 +12428,7 @@
         <v>569</v>
       </c>
       <c r="B569">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -12450,7 +12444,7 @@
         <v>571</v>
       </c>
       <c r="B571">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -12538,7 +12532,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -12546,7 +12540,7 @@
         <v>583</v>
       </c>
       <c r="B583">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -12570,7 +12564,7 @@
         <v>586</v>
       </c>
       <c r="B586">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -12586,7 +12580,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -12610,7 +12604,7 @@
         <v>591</v>
       </c>
       <c r="B591">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -12618,7 +12612,7 @@
         <v>592</v>
       </c>
       <c r="B592">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -12634,7 +12628,7 @@
         <v>594</v>
       </c>
       <c r="B594">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -12650,7 +12644,7 @@
         <v>596</v>
       </c>
       <c r="B596">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -12730,7 +12724,7 @@
         <v>606</v>
       </c>
       <c r="B606">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -12754,7 +12748,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -12770,7 +12764,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -12794,7 +12788,7 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -12802,7 +12796,7 @@
         <v>615</v>
       </c>
       <c r="B615">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -12810,7 +12804,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -12818,7 +12812,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -12954,7 +12948,7 @@
         <v>634</v>
       </c>
       <c r="B634">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -12978,7 +12972,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -13002,7 +12996,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -13026,7 +13020,7 @@
         <v>643</v>
       </c>
       <c r="B643">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -13058,7 +13052,7 @@
         <v>647</v>
       </c>
       <c r="B647">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -13074,7 +13068,7 @@
         <v>649</v>
       </c>
       <c r="B649">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -13130,7 +13124,7 @@
         <v>656</v>
       </c>
       <c r="B656">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -13146,7 +13140,7 @@
         <v>658</v>
       </c>
       <c r="B658">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -13202,7 +13196,7 @@
         <v>665</v>
       </c>
       <c r="B665">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -13210,7 +13204,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -13218,7 +13212,7 @@
         <v>667</v>
       </c>
       <c r="B667">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -13274,7 +13268,7 @@
         <v>674</v>
       </c>
       <c r="B674">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -13290,7 +13284,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -13306,7 +13300,7 @@
         <v>678</v>
       </c>
       <c r="B678">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -13362,7 +13356,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -13378,7 +13372,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -13394,7 +13388,7 @@
         <v>689</v>
       </c>
       <c r="B689">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -13418,7 +13412,7 @@
         <v>692</v>
       </c>
       <c r="B692">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -13490,7 +13484,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -13506,7 +13500,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -13522,7 +13516,7 @@
         <v>705</v>
       </c>
       <c r="B705">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -13530,7 +13524,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
@@ -13538,7 +13532,7 @@
         <v>707</v>
       </c>
       <c r="B707">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
@@ -13546,7 +13540,7 @@
         <v>708</v>
       </c>
       <c r="B708">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
@@ -13554,7 +13548,7 @@
         <v>709</v>
       </c>
       <c r="B709">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
@@ -13570,7 +13564,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
@@ -13602,7 +13596,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
@@ -13618,7 +13612,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
@@ -13634,7 +13628,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
@@ -13650,7 +13644,7 @@
         <v>721</v>
       </c>
       <c r="B721">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
@@ -13682,7 +13676,7 @@
         <v>725</v>
       </c>
       <c r="B725">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
@@ -13690,7 +13684,7 @@
         <v>726</v>
       </c>
       <c r="B726">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
@@ -13722,7 +13716,7 @@
         <v>730</v>
       </c>
       <c r="B730">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
@@ -13730,7 +13724,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
@@ -13762,7 +13756,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
@@ -13794,7 +13788,7 @@
         <v>739</v>
       </c>
       <c r="B739">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
@@ -13810,7 +13804,7 @@
         <v>741</v>
       </c>
       <c r="B741">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
@@ -13826,7 +13820,7 @@
         <v>743</v>
       </c>
       <c r="B743">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
@@ -13850,7 +13844,7 @@
         <v>746</v>
       </c>
       <c r="B746">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
@@ -13858,7 +13852,7 @@
         <v>747</v>
       </c>
       <c r="B747">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
@@ -13930,7 +13924,7 @@
         <v>756</v>
       </c>
       <c r="B756">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
@@ -13938,7 +13932,7 @@
         <v>757</v>
       </c>
       <c r="B757">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
@@ -13970,7 +13964,7 @@
         <v>761</v>
       </c>
       <c r="B761">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
@@ -14010,7 +14004,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>8.9999999999999993E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
@@ -14018,7 +14012,7 @@
         <v>767</v>
       </c>
       <c r="B767">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
@@ -14050,7 +14044,7 @@
         <v>771</v>
       </c>
       <c r="B771">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
@@ -14114,7 +14108,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
@@ -14122,7 +14116,7 @@
         <v>780</v>
       </c>
       <c r="B780">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
@@ -14130,7 +14124,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
@@ -14194,7 +14188,7 @@
         <v>789</v>
       </c>
       <c r="B789">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
@@ -14242,7 +14236,7 @@
         <v>795</v>
       </c>
       <c r="B795">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
@@ -14274,7 +14268,7 @@
         <v>799</v>
       </c>
       <c r="B799">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -14322,7 +14316,7 @@
         <v>805</v>
       </c>
       <c r="B805">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
@@ -14338,7 +14332,7 @@
         <v>807</v>
       </c>
       <c r="B807">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
@@ -14386,7 +14380,7 @@
         <v>813</v>
       </c>
       <c r="B813">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
@@ -14442,7 +14436,7 @@
         <v>820</v>
       </c>
       <c r="B820">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
@@ -14458,7 +14452,7 @@
         <v>822</v>
       </c>
       <c r="B822">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
@@ -14498,7 +14492,7 @@
         <v>827</v>
       </c>
       <c r="B827">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
@@ -14514,7 +14508,7 @@
         <v>829</v>
       </c>
       <c r="B829">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
@@ -14546,7 +14540,7 @@
         <v>833</v>
       </c>
       <c r="B833">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
@@ -14562,7 +14556,7 @@
         <v>835</v>
       </c>
       <c r="B835">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
@@ -14602,7 +14596,7 @@
         <v>840</v>
       </c>
       <c r="B840">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
@@ -14642,7 +14636,7 @@
         <v>845</v>
       </c>
       <c r="B845">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
@@ -14658,7 +14652,7 @@
         <v>847</v>
       </c>
       <c r="B847">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -14674,7 +14668,7 @@
         <v>849</v>
       </c>
       <c r="B849">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
@@ -14690,7 +14684,7 @@
         <v>851</v>
       </c>
       <c r="B851">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
@@ -14730,7 +14724,7 @@
         <v>856</v>
       </c>
       <c r="B856">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
@@ -14746,7 +14740,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
@@ -14778,7 +14772,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
@@ -14794,7 +14788,7 @@
         <v>864</v>
       </c>
       <c r="B864">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
@@ -14842,7 +14836,7 @@
         <v>870</v>
       </c>
       <c r="B870">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
@@ -14858,7 +14852,7 @@
         <v>872</v>
       </c>
       <c r="B872">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
@@ -14930,7 +14924,7 @@
         <v>881</v>
       </c>
       <c r="B881">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
@@ -14946,7 +14940,7 @@
         <v>883</v>
       </c>
       <c r="B883">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
@@ -14978,7 +14972,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
@@ -15010,7 +15004,7 @@
         <v>891</v>
       </c>
       <c r="B891">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
@@ -15026,7 +15020,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
@@ -15042,7 +15036,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
@@ -15074,7 +15068,7 @@
         <v>899</v>
       </c>
       <c r="B899">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
@@ -15090,7 +15084,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
@@ -15106,7 +15100,7 @@
         <v>903</v>
       </c>
       <c r="B903">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
@@ -15154,7 +15148,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
@@ -15178,7 +15172,7 @@
         <v>912</v>
       </c>
       <c r="B912">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
@@ -15186,7 +15180,7 @@
         <v>913</v>
       </c>
       <c r="B913">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
@@ -15202,7 +15196,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
@@ -15218,7 +15212,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
@@ -15234,7 +15228,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
@@ -15274,7 +15268,7 @@
         <v>924</v>
       </c>
       <c r="B924">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
@@ -15466,7 +15460,7 @@
         <v>948</v>
       </c>
       <c r="B948">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
@@ -15482,7 +15476,7 @@
         <v>950</v>
       </c>
       <c r="B950">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
@@ -15490,7 +15484,7 @@
         <v>951</v>
       </c>
       <c r="B951">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.25">
@@ -15506,7 +15500,7 @@
         <v>953</v>
       </c>
       <c r="B953">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
@@ -15530,7 +15524,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
@@ -15554,7 +15548,7 @@
         <v>959</v>
       </c>
       <c r="B959">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
@@ -15562,7 +15556,7 @@
         <v>960</v>
       </c>
       <c r="B960">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
@@ -15578,7 +15572,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
@@ -15722,7 +15716,7 @@
         <v>980</v>
       </c>
       <c r="B980">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.25">
@@ -15746,7 +15740,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
@@ -15762,7 +15756,7 @@
         <v>985</v>
       </c>
       <c r="B985">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
@@ -15930,7 +15924,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
@@ -15946,7 +15940,7 @@
         <v>1008</v>
       </c>
       <c r="B1008">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
@@ -15954,7 +15948,7 @@
         <v>1009</v>
       </c>
       <c r="B1009">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
@@ -16066,7 +16060,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>2E-3</v>
+        <v>1034.987061</v>
       </c>
     </row>
   </sheetData>
